--- a/AAII_Financials/Quarterly/LAIXY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LAIXY_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -719,25 +719,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>100900</v>
+        <v>100000</v>
       </c>
       <c r="E8" s="3">
-        <v>26500</v>
+        <v>26200</v>
       </c>
       <c r="F8" s="3">
-        <v>29300</v>
+        <v>29000</v>
       </c>
       <c r="G8" s="3">
-        <v>34700</v>
+        <v>34400</v>
       </c>
       <c r="H8" s="3">
-        <v>35300</v>
+        <v>35000</v>
       </c>
       <c r="I8" s="3">
-        <v>39700</v>
+        <v>39300</v>
       </c>
       <c r="J8" s="3">
-        <v>33600</v>
+        <v>33300</v>
       </c>
       <c r="K8" s="3">
         <v>34100</v>
@@ -748,25 +748,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>20700</v>
+        <v>20500</v>
       </c>
       <c r="E9" s="3">
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="F9" s="3">
         <v>6500</v>
       </c>
       <c r="G9" s="3">
-        <v>8500</v>
+        <v>8400</v>
       </c>
       <c r="H9" s="3">
-        <v>9600</v>
+        <v>9500</v>
       </c>
       <c r="I9" s="3">
-        <v>11100</v>
+        <v>11000</v>
       </c>
       <c r="J9" s="3">
-        <v>11600</v>
+        <v>11500</v>
       </c>
       <c r="K9" s="3">
         <v>11400</v>
@@ -777,25 +777,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>80200</v>
+        <v>79500</v>
       </c>
       <c r="E10" s="3">
-        <v>21300</v>
+        <v>21100</v>
       </c>
       <c r="F10" s="3">
-        <v>22700</v>
+        <v>22500</v>
       </c>
       <c r="G10" s="3">
-        <v>26200</v>
+        <v>25900</v>
       </c>
       <c r="H10" s="3">
-        <v>25700</v>
+        <v>25500</v>
       </c>
       <c r="I10" s="3">
-        <v>28600</v>
+        <v>28300</v>
       </c>
       <c r="J10" s="3">
-        <v>22000</v>
+        <v>21800</v>
       </c>
       <c r="K10" s="3">
         <v>22700</v>
@@ -819,25 +819,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>15500</v>
+        <v>15300</v>
       </c>
       <c r="E12" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="F12" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="G12" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="H12" s="3">
-        <v>6800</v>
+        <v>6700</v>
       </c>
       <c r="I12" s="3">
         <v>7100</v>
       </c>
       <c r="J12" s="3">
-        <v>8700</v>
+        <v>8600</v>
       </c>
       <c r="K12" s="3">
         <v>7800</v>
@@ -945,25 +945,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>94400</v>
+        <v>93500</v>
       </c>
       <c r="E17" s="3">
-        <v>24600</v>
+        <v>24400</v>
       </c>
       <c r="F17" s="3">
-        <v>27400</v>
+        <v>27100</v>
       </c>
       <c r="G17" s="3">
-        <v>40200</v>
+        <v>39900</v>
       </c>
       <c r="H17" s="3">
-        <v>46700</v>
+        <v>46300</v>
       </c>
       <c r="I17" s="3">
-        <v>53800</v>
+        <v>53300</v>
       </c>
       <c r="J17" s="3">
-        <v>62600</v>
+        <v>62000</v>
       </c>
       <c r="K17" s="3">
         <v>65200</v>
@@ -986,13 +986,13 @@
         <v>-5500</v>
       </c>
       <c r="H18" s="3">
-        <v>-11400</v>
+        <v>-11300</v>
       </c>
       <c r="I18" s="3">
-        <v>-14100</v>
+        <v>-14000</v>
       </c>
       <c r="J18" s="3">
-        <v>-29000</v>
+        <v>-28700</v>
       </c>
       <c r="K18" s="3">
         <v>-31100</v>
@@ -1045,7 +1045,7 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>10800</v>
+        <v>10700</v>
       </c>
       <c r="E21" s="3">
         <v>2000</v>
@@ -1103,7 +1103,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>9100</v>
+        <v>9000</v>
       </c>
       <c r="E23" s="3">
         <v>2100</v>
@@ -1115,13 +1115,13 @@
         <v>-4800</v>
       </c>
       <c r="H23" s="3">
-        <v>-10400</v>
+        <v>-10300</v>
       </c>
       <c r="I23" s="3">
-        <v>-13600</v>
+        <v>-13500</v>
       </c>
       <c r="J23" s="3">
-        <v>-29000</v>
+        <v>-28800</v>
       </c>
       <c r="K23" s="3">
         <v>-30100</v>
@@ -1132,7 +1132,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1190,10 +1190,10 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>8800</v>
+        <v>8700</v>
       </c>
       <c r="E26" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="F26" s="3">
         <v>1800</v>
@@ -1202,13 +1202,13 @@
         <v>-5100</v>
       </c>
       <c r="H26" s="3">
-        <v>-10400</v>
+        <v>-10300</v>
       </c>
       <c r="I26" s="3">
-        <v>-13600</v>
+        <v>-13500</v>
       </c>
       <c r="J26" s="3">
-        <v>-29000</v>
+        <v>-28800</v>
       </c>
       <c r="K26" s="3">
         <v>-30300</v>
@@ -1219,10 +1219,10 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>8800</v>
+        <v>8700</v>
       </c>
       <c r="E27" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="F27" s="3">
         <v>1800</v>
@@ -1231,13 +1231,13 @@
         <v>-5100</v>
       </c>
       <c r="H27" s="3">
-        <v>-10400</v>
+        <v>-10300</v>
       </c>
       <c r="I27" s="3">
-        <v>-13600</v>
+        <v>-13500</v>
       </c>
       <c r="J27" s="3">
-        <v>-29000</v>
+        <v>-28800</v>
       </c>
       <c r="K27" s="3">
         <v>-30300</v>
@@ -1393,10 +1393,10 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>8800</v>
+        <v>8700</v>
       </c>
       <c r="E33" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="F33" s="3">
         <v>1800</v>
@@ -1405,13 +1405,13 @@
         <v>-5100</v>
       </c>
       <c r="H33" s="3">
-        <v>-10400</v>
+        <v>-10300</v>
       </c>
       <c r="I33" s="3">
-        <v>-13600</v>
+        <v>-13500</v>
       </c>
       <c r="J33" s="3">
-        <v>-29000</v>
+        <v>-28800</v>
       </c>
       <c r="K33" s="3">
         <v>-30300</v>
@@ -1451,10 +1451,10 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>8800</v>
+        <v>8700</v>
       </c>
       <c r="E35" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="F35" s="3">
         <v>1800</v>
@@ -1463,13 +1463,13 @@
         <v>-5100</v>
       </c>
       <c r="H35" s="3">
-        <v>-10400</v>
+        <v>-10300</v>
       </c>
       <c r="I35" s="3">
-        <v>-13600</v>
+        <v>-13500</v>
       </c>
       <c r="J35" s="3">
-        <v>-29000</v>
+        <v>-28800</v>
       </c>
       <c r="K35" s="3">
         <v>-30300</v>
@@ -1543,22 +1543,22 @@
         <v>9300</v>
       </c>
       <c r="E41" s="3">
-        <v>17500</v>
+        <v>17400</v>
       </c>
       <c r="F41" s="3">
-        <v>17300</v>
+        <v>17100</v>
       </c>
       <c r="G41" s="3">
-        <v>20300</v>
+        <v>20200</v>
       </c>
       <c r="H41" s="3">
-        <v>23800</v>
+        <v>23600</v>
       </c>
       <c r="I41" s="3">
-        <v>24900</v>
+        <v>24700</v>
       </c>
       <c r="J41" s="3">
-        <v>27400</v>
+        <v>27200</v>
       </c>
       <c r="K41" s="3">
         <v>41400</v>
@@ -1575,19 +1575,19 @@
         <v>2000</v>
       </c>
       <c r="F42" s="3">
-        <v>7900</v>
+        <v>7800</v>
       </c>
       <c r="G42" s="3">
-        <v>13400</v>
+        <v>13300</v>
       </c>
       <c r="H42" s="3">
-        <v>24400</v>
+        <v>24200</v>
       </c>
       <c r="I42" s="3">
-        <v>32300</v>
+        <v>32000</v>
       </c>
       <c r="J42" s="3">
-        <v>39900</v>
+        <v>39500</v>
       </c>
       <c r="K42" s="3">
         <v>39700</v>
@@ -1613,7 +1613,7 @@
         <v>800</v>
       </c>
       <c r="I43" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="J43" s="3">
         <v>3000</v>
@@ -1659,22 +1659,22 @@
         <v>6300</v>
       </c>
       <c r="E45" s="3">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="F45" s="3">
         <v>7300</v>
       </c>
       <c r="G45" s="3">
-        <v>8700</v>
+        <v>8600</v>
       </c>
       <c r="H45" s="3">
-        <v>9800</v>
+        <v>9700</v>
       </c>
       <c r="I45" s="3">
-        <v>12300</v>
+        <v>12200</v>
       </c>
       <c r="J45" s="3">
-        <v>17600</v>
+        <v>17400</v>
       </c>
       <c r="K45" s="3">
         <v>13100</v>
@@ -1685,25 +1685,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>17100</v>
+        <v>16900</v>
       </c>
       <c r="E46" s="3">
-        <v>26400</v>
+        <v>26200</v>
       </c>
       <c r="F46" s="3">
-        <v>33400</v>
+        <v>33100</v>
       </c>
       <c r="G46" s="3">
-        <v>43300</v>
+        <v>42900</v>
       </c>
       <c r="H46" s="3">
-        <v>58800</v>
+        <v>58200</v>
       </c>
       <c r="I46" s="3">
-        <v>70800</v>
+        <v>70100</v>
       </c>
       <c r="J46" s="3">
-        <v>87900</v>
+        <v>87100</v>
       </c>
       <c r="K46" s="3">
         <v>95300</v>
@@ -1743,25 +1743,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="E48" s="3">
-        <v>11700</v>
+        <v>11600</v>
       </c>
       <c r="F48" s="3">
-        <v>12900</v>
+        <v>12800</v>
       </c>
       <c r="G48" s="3">
-        <v>16600</v>
+        <v>16400</v>
       </c>
       <c r="H48" s="3">
-        <v>19200</v>
+        <v>19000</v>
       </c>
       <c r="I48" s="3">
-        <v>23200</v>
+        <v>23000</v>
       </c>
       <c r="J48" s="3">
-        <v>27400</v>
+        <v>27100</v>
       </c>
       <c r="K48" s="3">
         <v>33500</v>
@@ -1868,7 +1868,7 @@
         <v>2700</v>
       </c>
       <c r="G52" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="H52" s="3">
         <v>3300</v>
@@ -1877,7 +1877,7 @@
         <v>3300</v>
       </c>
       <c r="J52" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="K52" s="3">
         <v>3500</v>
@@ -1917,25 +1917,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>24100</v>
+        <v>23900</v>
       </c>
       <c r="E54" s="3">
-        <v>43200</v>
+        <v>42800</v>
       </c>
       <c r="F54" s="3">
-        <v>51800</v>
+        <v>51300</v>
       </c>
       <c r="G54" s="3">
-        <v>65700</v>
+        <v>65100</v>
       </c>
       <c r="H54" s="3">
-        <v>84200</v>
+        <v>83400</v>
       </c>
       <c r="I54" s="3">
-        <v>100600</v>
+        <v>99700</v>
       </c>
       <c r="J54" s="3">
-        <v>122000</v>
+        <v>120900</v>
       </c>
       <c r="K54" s="3">
         <v>135400</v>
@@ -1972,25 +1972,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9700</v>
+        <v>9600</v>
       </c>
       <c r="E57" s="3">
-        <v>9700</v>
+        <v>9600</v>
       </c>
       <c r="F57" s="3">
         <v>10200</v>
       </c>
       <c r="G57" s="3">
-        <v>12300</v>
+        <v>12200</v>
       </c>
       <c r="H57" s="3">
-        <v>13200</v>
+        <v>13100</v>
       </c>
       <c r="I57" s="3">
-        <v>15100</v>
+        <v>14900</v>
       </c>
       <c r="J57" s="3">
-        <v>21100</v>
+        <v>20900</v>
       </c>
       <c r="K57" s="3">
         <v>20300</v>
@@ -2030,25 +2030,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>102800</v>
+        <v>101800</v>
       </c>
       <c r="E59" s="3">
-        <v>121100</v>
+        <v>120000</v>
       </c>
       <c r="F59" s="3">
-        <v>129600</v>
+        <v>128400</v>
       </c>
       <c r="G59" s="3">
-        <v>140000</v>
+        <v>138800</v>
       </c>
       <c r="H59" s="3">
-        <v>151000</v>
+        <v>149700</v>
       </c>
       <c r="I59" s="3">
-        <v>160000</v>
+        <v>158600</v>
       </c>
       <c r="J59" s="3">
-        <v>160900</v>
+        <v>159500</v>
       </c>
       <c r="K59" s="3">
         <v>143900</v>
@@ -2059,25 +2059,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>112400</v>
+        <v>111400</v>
       </c>
       <c r="E60" s="3">
-        <v>130800</v>
+        <v>129600</v>
       </c>
       <c r="F60" s="3">
-        <v>139900</v>
+        <v>138600</v>
       </c>
       <c r="G60" s="3">
-        <v>152400</v>
+        <v>151000</v>
       </c>
       <c r="H60" s="3">
-        <v>164200</v>
+        <v>162700</v>
       </c>
       <c r="I60" s="3">
-        <v>175100</v>
+        <v>173500</v>
       </c>
       <c r="J60" s="3">
-        <v>182000</v>
+        <v>180400</v>
       </c>
       <c r="K60" s="3">
         <v>164200</v>
@@ -2120,22 +2120,22 @@
         <v>4800</v>
       </c>
       <c r="E62" s="3">
-        <v>12100</v>
+        <v>12000</v>
       </c>
       <c r="F62" s="3">
-        <v>13900</v>
+        <v>13800</v>
       </c>
       <c r="G62" s="3">
-        <v>18300</v>
+        <v>18200</v>
       </c>
       <c r="H62" s="3">
-        <v>18700</v>
+        <v>18600</v>
       </c>
       <c r="I62" s="3">
-        <v>13400</v>
+        <v>13200</v>
       </c>
       <c r="J62" s="3">
-        <v>14800</v>
+        <v>14700</v>
       </c>
       <c r="K62" s="3">
         <v>19100</v>
@@ -2233,25 +2233,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>117300</v>
+        <v>116200</v>
       </c>
       <c r="E66" s="3">
-        <v>142900</v>
+        <v>141600</v>
       </c>
       <c r="F66" s="3">
-        <v>153800</v>
+        <v>152400</v>
       </c>
       <c r="G66" s="3">
-        <v>170700</v>
+        <v>169100</v>
       </c>
       <c r="H66" s="3">
-        <v>183000</v>
+        <v>181300</v>
       </c>
       <c r="I66" s="3">
-        <v>188400</v>
+        <v>186700</v>
       </c>
       <c r="J66" s="3">
-        <v>196800</v>
+        <v>195100</v>
       </c>
       <c r="K66" s="3">
         <v>183300</v>
@@ -2391,25 +2391,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-272100</v>
+        <v>-269700</v>
       </c>
       <c r="E72" s="3">
-        <v>-277100</v>
+        <v>-274600</v>
       </c>
       <c r="F72" s="3">
-        <v>-279100</v>
+        <v>-276600</v>
       </c>
       <c r="G72" s="3">
-        <v>-280900</v>
+        <v>-278400</v>
       </c>
       <c r="H72" s="3">
-        <v>-275800</v>
+        <v>-273300</v>
       </c>
       <c r="I72" s="3">
-        <v>-265400</v>
+        <v>-263000</v>
       </c>
       <c r="J72" s="3">
-        <v>-251800</v>
+        <v>-249500</v>
       </c>
       <c r="K72" s="3">
         <v>-222800</v>
@@ -2507,25 +2507,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-93100</v>
+        <v>-92300</v>
       </c>
       <c r="E76" s="3">
-        <v>-99700</v>
+        <v>-98800</v>
       </c>
       <c r="F76" s="3">
-        <v>-102000</v>
+        <v>-101100</v>
       </c>
       <c r="G76" s="3">
-        <v>-105000</v>
+        <v>-104100</v>
       </c>
       <c r="H76" s="3">
-        <v>-98800</v>
+        <v>-97900</v>
       </c>
       <c r="I76" s="3">
-        <v>-87900</v>
+        <v>-87100</v>
       </c>
       <c r="J76" s="3">
-        <v>-74900</v>
+        <v>-74200</v>
       </c>
       <c r="K76" s="3">
         <v>-47900</v>
@@ -2599,10 +2599,10 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>8800</v>
+        <v>8700</v>
       </c>
       <c r="E81" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="F81" s="3">
         <v>1800</v>
@@ -2611,13 +2611,13 @@
         <v>-5100</v>
       </c>
       <c r="H81" s="3">
-        <v>-10400</v>
+        <v>-10300</v>
       </c>
       <c r="I81" s="3">
-        <v>-13600</v>
+        <v>-13500</v>
       </c>
       <c r="J81" s="3">
-        <v>-29000</v>
+        <v>-28800</v>
       </c>
       <c r="K81" s="3">
         <v>-30300</v>
@@ -2815,10 +2815,10 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-22900</v>
+        <v>-22700</v>
       </c>
       <c r="E89" s="3">
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="F89" s="3">
         <v>8400</v>
@@ -2944,7 +2944,7 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>12000</v>
+        <v>11900</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>16</v>
@@ -3160,7 +3160,7 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-11000</v>
+        <v>-10900</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>16</v>
